--- a/componentsData/excelData/write/dataFromOPC.xlsx
+++ b/componentsData/excelData/write/dataFromOPC.xlsx
@@ -5,21 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Документи\Eclipse for Java EE Projects\Camel\componentsData\excelData\write\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Документи\Git - repositories\Apache-Camel\componentsData\excelData\write\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Сторінка 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -125,6 +121,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -134,6 +145,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -148,11 +174,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1512893632"/>
-        <c:axId val="1512891456"/>
+        <c:axId val="-748296256"/>
+        <c:axId val="-748288640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1512893632"/>
+        <c:axId val="-748296256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -162,7 +188,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1512891456"/>
+        <c:crossAx val="-748288640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -170,7 +196,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1512891456"/>
+        <c:axId val="-748288640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -180,7 +206,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1512893632"/>
+        <c:crossAx val="-748296256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -500,14 +526,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="A1:P25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
